--- a/data/trans_orig/P20D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2E7682-8DF3-4176-B08A-D2C828B31ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4AC5B2A-C9E3-485C-BD96-4D68FB85028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE75A79-B0FD-4EAA-B022-8051F6D5DBD5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50911A3F-6EB3-4429-8449-A43ECE15CA36}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A2CD39-488B-4003-A8CF-F99A269D0321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4066425-4262-45B8-B44A-FA4EF3D33AD4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4AC5B2A-C9E3-485C-BD96-4D68FB85028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A0CDA5-2D08-4639-98DC-BC25541185B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50911A3F-6EB3-4429-8449-A43ECE15CA36}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33C7CEA8-6FC6-4099-9D6A-E4A89B0CD197}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
   <si>
     <t>Población que durante el ingreso estuvo acompañada por una mujer casi todo el tiempo en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>23,96%</t>
   </si>
   <si>
-    <t>81,76%</t>
+    <t>73,63%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>55,31%</t>
+    <t>52,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>18,24%</t>
+    <t>26,37%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>44,69%</t>
+    <t>47,79%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,55 +122,55 @@
     <t>73,53%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -179,43 +179,43 @@
     <t>87,78%</t>
   </si>
   <si>
-    <t>62,8%</t>
+    <t>57,98%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>47,59%</t>
+    <t>47,65%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>37,2%</t>
+    <t>42,02%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>52,41%</t>
+    <t>52,35%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -224,49 +224,49 @@
     <t>76,21%</t>
   </si>
   <si>
-    <t>35,03%</t>
+    <t>40,4%</t>
   </si>
   <si>
     <t>49,53%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>64,97%</t>
+    <t>59,6%</t>
   </si>
   <si>
     <t>50,47%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -281,10 +281,10 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>20,21%</t>
@@ -296,10 +296,10 @@
     <t>35,95%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -308,112 +308,106 @@
     <t>67,95%</t>
   </si>
   <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>84,74%</t>
   </si>
   <si>
     <t>32,05%</t>
   </si>
   <si>
-    <t>7,84%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
     <t>Malaga</t>
   </si>
   <si>
     <t>54,41%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
   </si>
   <si>
     <t>45,59%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>66,0%</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>58,53%</t>
   </si>
   <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -437,10 +431,10 @@
     <t>58,04%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>23,73%</t>
@@ -461,58 +455,58 @@
     <t>41,96%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4066425-4262-45B8-B44A-FA4EF3D33AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5D5B2B-97D1-463F-9089-290E59F8A0AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1844,10 +1838,10 @@
         <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -1856,13 +1850,13 @@
         <v>6445</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1871,13 @@
         <v>2063</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1892,13 +1886,13 @@
         <v>1446</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -1907,13 +1901,13 @@
         <v>3509</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1963,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1981,13 +1975,13 @@
         <v>5149</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -1996,13 +1990,13 @@
         <v>5565</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2011,13 +2005,13 @@
         <v>10714</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2026,13 @@
         <v>4315</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -2047,13 +2041,13 @@
         <v>10805</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2062,13 +2056,13 @@
         <v>15120</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,7 +2118,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2136,13 +2130,13 @@
         <v>6443</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2151,13 +2145,13 @@
         <v>1408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2166,13 +2160,13 @@
         <v>7851</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2181,13 @@
         <v>2005</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2202,10 +2196,10 @@
         <v>3670</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2217,13 +2211,13 @@
         <v>5675</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2285,13 @@
         <v>46508</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -2309,10 +2303,10 @@
         <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -2321,13 +2315,13 @@
         <v>67204</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2336,13 @@
         <v>18715</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -2360,10 +2354,10 @@
         <v>30</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -2372,13 +2366,13 @@
         <v>51736</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2428,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
